--- a/biology/Botanique/Nothofagus_alpina/Nothofagus_alpina.xlsx
+++ b/biology/Botanique/Nothofagus_alpina/Nothofagus_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le raulí ou roblí (Nothofagus alpina) (syn. Fagus alpina, F. procera, F. nervosa, Nothofagus procera, N. nervosa, N. nervosa), est un arbre à feuilles caduques natif de la forêt andine de Patagonie du sud du Chili, depuis Curicó jusque Fresia (VIe à Xe région chilienne) de 35 à 42° de latitude sud, également des zones adjacentes de Cordillère des Andes argentine. Il prospère dans des lieux à basse températures et à vents puissants.
 On le trouve associé à d'autres types forestiers :
-Nothofagus obliqua (roble pellín) (40 000 hectares en province de Neuquén[1] )
+Nothofagus obliqua (roble pellín) (40 000 hectares en province de Neuquén )
 Nothofagus dombeyi (coihue)
 Aureliopsis philippiana (tepa)
 Nothofagus pumilio (lenga)
